--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3264.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3264.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.314473089333652</v>
+        <v>3.423900127410889</v>
       </c>
       <c r="B1">
-        <v>1.800392445024399</v>
+        <v>2.674579381942749</v>
       </c>
       <c r="C1">
-        <v>3.070658678266982</v>
+        <v>1.828469276428223</v>
       </c>
       <c r="D1">
-        <v>5.414548224223961</v>
+        <v>1.631266236305237</v>
       </c>
       <c r="E1">
-        <v>0.9161909484328482</v>
+        <v>1.448257923126221</v>
       </c>
     </row>
   </sheetData>
